--- a/03_Outputs/all/idx8_demografica_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx8_demografica_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>-0.1976854795682791</v>
       </c>
+      <c r="D2">
+        <v>0.0609254413856303</v>
+      </c>
+      <c r="E2">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.1579166445736205</v>
       </c>
+      <c r="D3">
+        <v>0.04866893255790421</v>
+      </c>
+      <c r="E3">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.354424493824064</v>
       </c>
+      <c r="D4">
+        <v>0.1092314355675854</v>
+      </c>
+      <c r="E4">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>0.306006048015846</v>
       </c>
+      <c r="D5">
+        <v>0.09430917021701864</v>
+      </c>
+      <c r="E5">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>0.318610791474109</v>
       </c>
+      <c r="D6">
+        <v>0.09819387414380386</v>
+      </c>
+      <c r="E6">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>0.3458684211341022</v>
       </c>
+      <c r="D7">
+        <v>0.1065945069155576</v>
+      </c>
+      <c r="E7">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.2517544859870866</v>
       </c>
+      <c r="D8">
+        <v>0.07758917454672237</v>
+      </c>
+      <c r="E8">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>0.3140287519647158</v>
       </c>
+      <c r="D9">
+        <v>0.09678171792390426</v>
+      </c>
+      <c r="E9">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>0.3608222232136075</v>
       </c>
+      <c r="D10">
+        <v>0.1112031761717764</v>
+      </c>
+      <c r="E10">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>0.3104797365939181</v>
       </c>
+      <c r="D11">
+        <v>0.09568793335043713</v>
+      </c>
+      <c r="E11">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>0.3271144115333574</v>
       </c>
+      <c r="D12">
+        <v>0.1008146372196597</v>
+      </c>
+      <c r="E12">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>0.2100351908705065</v>
       </c>
+      <c r="D13">
+        <v>0.07413833150902226</v>
+      </c>
+      <c r="E13">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>0.4770548317804419</v>
       </c>
+      <c r="D14">
+        <v>0.1683910639923421</v>
+      </c>
+      <c r="E14">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>0.07331323855203042</v>
       </c>
+      <c r="D15">
+        <v>0.02587814528243276</v>
+      </c>
+      <c r="E15">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>-0.1445853002927375</v>
       </c>
+      <c r="D16">
+        <v>0.05103579490659405</v>
+      </c>
+      <c r="E16">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>0.2942445687784355</v>
       </c>
+      <c r="D17">
+        <v>0.1038626017593142</v>
+      </c>
+      <c r="E17">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>-0.1242933894611007</v>
       </c>
+      <c r="D18">
+        <v>0.04387314560981537</v>
+      </c>
+      <c r="E18">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>-0.5349447412080017</v>
       </c>
+      <c r="D19">
+        <v>0.188825074494962</v>
+      </c>
+      <c r="E19">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>0.2854440750751965</v>
       </c>
+      <c r="D20">
+        <v>0.1007561988898252</v>
+      </c>
+      <c r="E20">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>-0.01136803707688799</v>
       </c>
+      <c r="D21">
+        <v>0.004012695672187601</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>-0.3746458911462076</v>
       </c>
+      <c r="D22">
+        <v>0.1322427025736614</v>
+      </c>
+      <c r="E22">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>0.303088239597831</v>
       </c>
+      <c r="D23">
+        <v>0.106984245309843</v>
+      </c>
+      <c r="E23">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>-0.8357515526508826</v>
       </c>
+      <c r="D24">
+        <v>0.4004213494538177</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>0.4529652463263166</v>
       </c>
+      <c r="D25">
+        <v>0.2170225764036731</v>
+      </c>
+      <c r="E25">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>-0.07119643002274911</v>
       </c>
+      <c r="D26">
+        <v>0.03411129838237028</v>
+      </c>
+      <c r="E26">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>-0.1240042152930168</v>
       </c>
+      <c r="D27">
+        <v>0.05941231585881766</v>
+      </c>
+      <c r="E27">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>-0.1925822619848995</v>
       </c>
+      <c r="D28">
+        <v>0.09226910674621847</v>
+      </c>
+      <c r="E28">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>0.02631815201427358</v>
       </c>
+      <c r="D29">
+        <v>0.01260942909559668</v>
+      </c>
+      <c r="E29">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>-0.04701297652228073</v>
       </c>
+      <c r="D30">
+        <v>0.02252463598922686</v>
+      </c>
+      <c r="E30">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>-0.0456878428880492</v>
       </c>
+      <c r="D31">
+        <v>0.02188974420070119</v>
+      </c>
+      <c r="E31">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>-0.0424220389669857</v>
       </c>
+      <c r="D32">
+        <v>0.02032504760040653</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>-0.1027352710340146</v>
       </c>
+      <c r="D33">
+        <v>0.04922203941286378</v>
+      </c>
+      <c r="E33">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>-0.1465043132242007</v>
       </c>
+      <c r="D34">
+        <v>0.07019245685630768</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>-0.3364621712429949</v>
       </c>
+      <c r="D35">
+        <v>0.1258439059194346</v>
+      </c>
+      <c r="E35">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>-0.6425677767482422</v>
       </c>
+      <c r="D36">
+        <v>0.240333819832501</v>
+      </c>
+      <c r="E36">
+        <v>24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>-0.02830716370783577</v>
       </c>
+      <c r="D37">
+        <v>0.01058747268180177</v>
+      </c>
+      <c r="E37">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>-0.456570267938646</v>
       </c>
+      <c r="D38">
+        <v>0.1707668521302697</v>
+      </c>
+      <c r="E38">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>0.1890382791879446</v>
       </c>
+      <c r="D39">
+        <v>0.07070427957298871</v>
+      </c>
+      <c r="E39">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>0.1446156902418859</v>
       </c>
+      <c r="D40">
+        <v>0.05408929999482933</v>
+      </c>
+      <c r="E40">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>-0.04568746193835083</v>
       </c>
+      <c r="D41">
+        <v>0.01708806859513267</v>
+      </c>
+      <c r="E41">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>0.2565536956981452</v>
       </c>
+      <c r="D42">
+        <v>0.09595646079750136</v>
+      </c>
+      <c r="E42">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>0.05290805235963728</v>
       </c>
+      <c r="D43">
+        <v>0.01978872079119455</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>-0.288745693081224</v>
       </c>
+      <c r="D44">
+        <v>0.1079969427187486</v>
+      </c>
+      <c r="E44">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>0.232190666112687</v>
       </c>
+      <c r="D45">
+        <v>0.08684417696559753</v>
+      </c>
+      <c r="E45">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>-0.2628050073112408</v>
       </c>
+      <c r="D46">
+        <v>0.1095925325290465</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>-0.3572789928494965</v>
       </c>
+      <c r="D47">
+        <v>0.1489892070413708</v>
+      </c>
+      <c r="E47">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>0.1896659038333221</v>
       </c>
+      <c r="D48">
+        <v>0.07909273475481184</v>
+      </c>
+      <c r="E48">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>0.5930531347727175</v>
       </c>
+      <c r="D49">
+        <v>0.2473095761339859</v>
+      </c>
+      <c r="E49">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>-0.01379707030469743</v>
       </c>
+      <c r="D50">
+        <v>0.005753527650188042</v>
+      </c>
+      <c r="E50">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>-0.2038069852100198</v>
       </c>
+      <c r="D51">
+        <v>0.08498971874544124</v>
+      </c>
+      <c r="E51">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>-0.6028306014029143</v>
       </c>
+      <c r="D52">
+        <v>0.2513868855455698</v>
+      </c>
+      <c r="E52">
+        <v>25.1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>-0.08954076214994655</v>
       </c>
+      <c r="D53">
+        <v>0.03733946696446337</v>
+      </c>
+      <c r="E53">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>0.02557381578928274</v>
       </c>
+      <c r="D54">
+        <v>0.01066455798332474</v>
+      </c>
+      <c r="E54">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>0.03266622855123843</v>
       </c>
+      <c r="D55">
+        <v>0.01362217087006675</v>
+      </c>
+      <c r="E55">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>-0.02700079025808966</v>
       </c>
+      <c r="D56">
+        <v>0.01125962178173112</v>
+      </c>
+      <c r="E56">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>0.1046964959308905</v>
       </c>
+      <c r="D57">
+        <v>0.04188157971228253</v>
+      </c>
+      <c r="E57">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>-0.02105028142943362</v>
       </c>
+      <c r="D58">
+        <v>0.008420712000091731</v>
+      </c>
+      <c r="E58">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>-0.3277527492060135</v>
       </c>
+      <c r="D59">
+        <v>0.1311104327775437</v>
+      </c>
+      <c r="E59">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>0.1805661219766568</v>
       </c>
+      <c r="D60">
+        <v>0.07223159059587791</v>
+      </c>
+      <c r="E60">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>-0.5137894798103285</v>
       </c>
+      <c r="D61">
+        <v>0.2055304226056673</v>
+      </c>
+      <c r="E61">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>0.3562714496350022</v>
       </c>
+      <c r="D62">
+        <v>0.1425187250483358</v>
+      </c>
+      <c r="E62">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>-0.1609599733511446</v>
       </c>
+      <c r="D63">
+        <v>0.06438857284051507</v>
+      </c>
+      <c r="E63">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>0.6476027276424154</v>
       </c>
+      <c r="D64">
+        <v>0.259059532207753</v>
+      </c>
+      <c r="E64">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>-0.07106217286495907</v>
       </c>
+      <c r="D65">
+        <v>0.02842689271412056</v>
+      </c>
+      <c r="E65">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>0.04104799946188947</v>
       </c>
+      <c r="D66">
+        <v>0.01642036866857185</v>
+      </c>
+      <c r="E66">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>-0.07502258621069517</v>
       </c>
+      <c r="D67">
+        <v>0.03001117082924031</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>-0.1491129545081731</v>
       </c>
+      <c r="D68">
+        <v>0.05276422929932165</v>
+      </c>
+      <c r="E68">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>-0.02091922672614232</v>
       </c>
+      <c r="D69">
+        <v>0.007402354003267842</v>
+      </c>
+      <c r="E69">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>-0.214423784086856</v>
       </c>
+      <c r="D70">
+        <v>0.07587473367491333</v>
+      </c>
+      <c r="E70">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>0.1477955498349801</v>
       </c>
+      <c r="D71">
+        <v>0.05229806026333392</v>
+      </c>
+      <c r="E71">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>0.1491087824515195</v>
       </c>
+      <c r="D72">
+        <v>0.05276275299999775</v>
+      </c>
+      <c r="E72">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>-0.6199835414608654</v>
       </c>
+      <c r="D73">
+        <v>0.2193837138519949</v>
+      </c>
+      <c r="E73">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>0.2876175864213263</v>
       </c>
+      <c r="D74">
+        <v>0.1017746602265902</v>
+      </c>
+      <c r="E74">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>0.3725511589336266</v>
       </c>
+      <c r="D75">
+        <v>0.1318287525087194</v>
+      </c>
+      <c r="E75">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>-0.4323941136483865</v>
       </c>
+      <c r="D76">
+        <v>0.1530044269826998</v>
+      </c>
+      <c r="E76">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>0.1931650784508238</v>
       </c>
+      <c r="D77">
+        <v>0.06835225366983166</v>
+      </c>
+      <c r="E77">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>0.2389517717846793</v>
       </c>
+      <c r="D78">
+        <v>0.08455406251932943</v>
+      </c>
+      <c r="E78">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>-0.052144247429547</v>
       </c>
+      <c r="D79">
+        <v>0.01976724898575233</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>0.02421280492235858</v>
       </c>
+      <c r="D80">
+        <v>0.009178779388663807</v>
+      </c>
+      <c r="E80">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>-0.6143540955015694</v>
       </c>
+      <c r="D81">
+        <v>0.232894153618849</v>
+      </c>
+      <c r="E81">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>0.1663257437047121</v>
       </c>
+      <c r="D82">
+        <v>0.06305206327876686</v>
+      </c>
+      <c r="E82">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>0.4851110747203448</v>
       </c>
+      <c r="D83">
+        <v>0.1838996988632206</v>
+      </c>
+      <c r="E83">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>0.417335689623434</v>
       </c>
+      <c r="D84">
+        <v>0.1582068760043613</v>
+      </c>
+      <c r="E84">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>-0.1425606620711422</v>
       </c>
+      <c r="D85">
+        <v>0.05404301033477295</v>
+      </c>
+      <c r="E85">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>-0.2574455786061267</v>
       </c>
+      <c r="D86">
+        <v>0.09759448267930616</v>
+      </c>
+      <c r="E86">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>-0.2670150877644415</v>
       </c>
+      <c r="D87">
+        <v>0.1012221670266434</v>
+      </c>
+      <c r="E87">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>0.1361379420939956</v>
       </c>
+      <c r="D88">
+        <v>0.05160823543221903</v>
+      </c>
+      <c r="E88">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>0.0752682703672594</v>
       </c>
+      <c r="D89">
+        <v>0.02853328438744458</v>
+      </c>
+      <c r="E89">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>-0.009755604923258445</v>
       </c>
+      <c r="D90">
+        <v>0.003704624520490188</v>
+      </c>
+      <c r="E90">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>0.01713575067210392</v>
       </c>
+      <c r="D91">
+        <v>0.006507184599648495</v>
+      </c>
+      <c r="E91">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>-0.3552624356744034</v>
       </c>
+      <c r="D92">
+        <v>0.1349084901204539</v>
+      </c>
+      <c r="E92">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>-0.0901667144264396</v>
       </c>
+      <c r="D93">
+        <v>0.03424019564382428</v>
+      </c>
+      <c r="E93">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>-0.3557443818823519</v>
       </c>
+      <c r="D94">
+        <v>0.1350915059102043</v>
+      </c>
+      <c r="E94">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>-0.1742158567424275</v>
       </c>
+      <c r="D95">
+        <v>0.0661572849478034</v>
+      </c>
+      <c r="E95">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>-0.1001320123220381</v>
       </c>
+      <c r="D96">
+        <v>0.0380244496422624</v>
+      </c>
+      <c r="E96">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>-0.2561040467766704</v>
       </c>
+      <c r="D97">
+        <v>0.09725376734185368</v>
+      </c>
+      <c r="E97">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>0.4316510807749205</v>
       </c>
+      <c r="D98">
+        <v>0.1639165577854036</v>
+      </c>
+      <c r="E98">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>0.2083574021142415</v>
       </c>
+      <c r="D99">
+        <v>0.07912230425176314</v>
+      </c>
+      <c r="E99">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>0.6348333359483888</v>
       </c>
+      <c r="D100">
+        <v>0.2410736352362925</v>
+      </c>
+      <c r="E100">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>0.001790713920036582</v>
       </c>
+      <c r="D101">
+        <v>0.0008142603540449284</v>
+      </c>
+      <c r="E101">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>-0.0004007077231938614</v>
       </c>
+      <c r="D102">
+        <v>0.0001822068890544534</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>-0.09174144424838586</v>
       </c>
+      <c r="D103">
+        <v>0.04171599943376644</v>
+      </c>
+      <c r="E103">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>0.4632722055026251</v>
       </c>
+      <c r="D104">
+        <v>0.2106557534684469</v>
+      </c>
+      <c r="E104">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>-0.1004828998622341</v>
       </c>
+      <c r="D105">
+        <v>0.04569085028144101</v>
+      </c>
+      <c r="E105">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>0.06233886421393209</v>
       </c>
+      <c r="D106">
+        <v>0.02834627300186403</v>
+      </c>
+      <c r="E106">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>0.3758706380381843</v>
       </c>
+      <c r="D107">
+        <v>0.1709131511066898</v>
+      </c>
+      <c r="E107">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>-0.1220780111919293</v>
       </c>
+      <c r="D108">
+        <v>0.05551042157097343</v>
+      </c>
+      <c r="E108">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>0.01294442632223273</v>
       </c>
+      <c r="D109">
+        <v>0.005885994988989863</v>
+      </c>
+      <c r="E109">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>-0.7466734815238751</v>
       </c>
+      <c r="D110">
+        <v>0.3395219116904891</v>
+      </c>
+      <c r="E110">
+        <v>34</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>0.2215974573345081</v>
       </c>
+      <c r="D111">
+        <v>0.10076317721424</v>
+      </c>
+      <c r="E111">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>-0.006190070593961805</v>
       </c>
+      <c r="D112">
+        <v>0.002482513192369703</v>
+      </c>
+      <c r="E112">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>-0.001047463741717373</v>
       </c>
+      <c r="D113">
+        <v>0.0004200828597785059</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>-0.4021278350731564</v>
       </c>
+      <c r="D114">
+        <v>0.1612724185346082</v>
+      </c>
+      <c r="E114">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>0.07104110866158743</v>
       </c>
+      <c r="D115">
+        <v>0.02849086884808612</v>
+      </c>
+      <c r="E115">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>0.2840719059186083</v>
       </c>
+      <c r="D116">
+        <v>0.1139263669646126</v>
+      </c>
+      <c r="E116">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>-0.2864738108722373</v>
       </c>
+      <c r="D117">
+        <v>0.11488964527359</v>
+      </c>
+      <c r="E117">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>0.04990808221665674</v>
       </c>
+      <c r="D118">
+        <v>0.02001551850306517</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>0.1975567986299721</v>
       </c>
+      <c r="D119">
+        <v>0.07922968751271349</v>
+      </c>
+      <c r="E119">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>0.6439125769766366</v>
       </c>
+      <c r="D120">
+        <v>0.2582396182422497</v>
+      </c>
+      <c r="E120">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>-0.09890285961275143</v>
       </c>
+      <c r="D121">
+        <v>0.03966475826483266</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2190,6 +2920,12 @@
       </c>
       <c r="C122">
         <v>-0.4522368529361874</v>
+      </c>
+      <c r="D122">
+        <v>0.1813685218040939</v>
+      </c>
+      <c r="E122">
+        <v>18.1</v>
       </c>
     </row>
   </sheetData>
